--- a/Localization/PopGuide_Translations.xlsx
+++ b/Localization/PopGuide_Translations.xlsx
@@ -1542,6 +1542,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">计算当前位置所需地点服务功能</t>
     </r>
@@ -1559,6 +1560,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请从应用程序的设置中启动</t>
     </r>
@@ -2176,6 +2178,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您当前的位置超出城区范围</t>
     </r>
@@ -2193,6 +2196,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">路线计算及导航无法使用</t>
     </r>
@@ -2504,6 +2508,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">下载旅游包时出现错误</t>
     </r>
@@ -2521,6 +2526,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请重试</t>
     </r>
@@ -2947,6 +2953,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">旅途愉快！</t>
     </r>
@@ -3087,6 +3094,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">％</t>
     </r>
@@ -3104,6 +3112,7 @@
         <sz val="10"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">为您的私人订制已就绪！</t>
     </r>
@@ -4443,6 +4452,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">网络错误</t>
     </r>
@@ -4474,6 +4484,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">无法找到网络！</t>
     </r>
@@ -4491,6 +4502,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请稍后再试</t>
     </r>
@@ -4525,6 +4537,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请更新</t>
     </r>
@@ -4542,6 +4555,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，以便继续使用</t>
     </r>
@@ -4582,6 +4596,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您目前的位置超出了此城市范围</t>
     </r>
@@ -4599,6 +4614,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">计算线路和导航无法工作</t>
     </r>
@@ -4663,6 +4679,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">下载旅行包错误</t>
     </r>
@@ -4680,6 +4697,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请稍后再试</t>
     </r>
@@ -4717,6 +4735,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">同步数据出现错误</t>
     </r>
@@ -4734,6 +4753,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请稍后再试</t>
     </r>
@@ -4789,6 +4809,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">此语音导览的更新可下载</t>
     </r>
@@ -4806,6 +4827,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">现在重新下载吗？</t>
     </r>
@@ -4852,6 +4874,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">退出登录将删除所有已下载数据</t>
     </r>
@@ -4886,6 +4909,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">不可用</t>
     </r>
@@ -4911,6 +4935,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">请启用</t>
     </r>
@@ -4928,6 +4953,7 @@
         <sz val="11"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">并再试</t>
     </r>
@@ -5034,12 +5060,14 @@
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5109,6 +5137,7 @@
       <sz val="11"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5179,7 +5208,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5352,14 +5381,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5421,18 +5442,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="1" style="0" width="33.6122448979592"/>
     <col collapsed="false" hidden="true" max="23" min="14" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="27" min="24" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9097,35 +9118,6 @@
       <c r="Y69" s="14"/>
       <c r="Z69" s="14"/>
       <c r="AA69" s="14"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="14"/>
-      <c r="AA70" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9161,8 +9153,8 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="27" min="2" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="27" min="2" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9200,3191 +9192,3191 @@
       <c r="L1" s="3" t="s">
         <v>806</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>807</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="44" t="s">
         <v>808</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="44" t="s">
         <v>809</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>810</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="45" t="s">
         <v>811</v>
       </c>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="44" t="s">
         <v>812</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="44" t="s">
         <v>813</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>814</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44" t="s">
         <v>815</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="45" t="s">
         <v>816</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="44" t="s">
         <v>817</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="44" t="s">
         <v>818</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>819</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="44" t="s">
         <v>820</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="45"/>
-      <c r="W4" s="45"/>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="44" t="s">
         <v>821</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="44" t="s">
         <v>822</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>823</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="44" t="s">
         <v>824</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="45"/>
-      <c r="U5" s="45"/>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>825</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="44" t="s">
         <v>826</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="44" t="s">
         <v>827</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45"/>
-      <c r="S6" s="45"/>
-      <c r="T6" s="45"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="44" t="s">
         <v>828</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="44" t="s">
         <v>829</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46" t="s">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="47" t="s">
+      <c r="L7" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
         <v>830</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="44" t="s">
         <v>831</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46" t="s">
+      <c r="I9" s="44"/>
+      <c r="J9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="44" t="s">
         <v>832</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="44" t="s">
         <v>833</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="44" t="s">
         <v>834</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46" t="s">
+      <c r="I11" s="44"/>
+      <c r="J11" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="L11" s="47" t="s">
+      <c r="L11" s="45" t="s">
         <v>293</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="46" t="s">
+      <c r="F12" s="44" t="s">
         <v>835</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46" t="s">
+      <c r="I12" s="44"/>
+      <c r="J12" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="46" t="s">
+      <c r="K12" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L12" s="45" t="s">
         <v>836</v>
       </c>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
+      <c r="AA12" s="43"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="44" t="s">
         <v>837</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="44" t="s">
         <v>838</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="46" t="s">
+      <c r="F13" s="44" t="s">
         <v>839</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46" t="s">
+      <c r="I13" s="44"/>
+      <c r="J13" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="L13" s="47" t="s">
+      <c r="L13" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="44" t="s">
         <v>840</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46" t="s">
+      <c r="I14" s="44"/>
+      <c r="J14" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="47" t="s">
+      <c r="L14" s="45" t="s">
         <v>841</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
+      <c r="AA14" s="43"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46" t="s">
+      <c r="I15" s="44"/>
+      <c r="J15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46" t="s">
+      <c r="I16" s="44"/>
+      <c r="J16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L16" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="45"/>
-      <c r="AA16" s="45"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="44" t="s">
         <v>842</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="44" t="s">
         <v>843</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46" t="s">
+      <c r="I17" s="44"/>
+      <c r="J17" s="44" t="s">
         <v>844</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46" t="s">
+      <c r="I18" s="44"/>
+      <c r="J18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K18" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="L18" s="47" t="s">
+      <c r="L18" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="45"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="43"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="43"/>
+      <c r="AA18" s="43"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="44" t="s">
         <v>845</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="44" t="s">
         <v>846</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="44" t="s">
         <v>847</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="44" t="s">
         <v>848</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46" t="s">
+      <c r="I19" s="44"/>
+      <c r="J19" s="44" t="s">
         <v>849</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="47" t="s">
+      <c r="L19" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="45"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="44" t="s">
         <v>850</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="44" t="s">
         <v>851</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="44" t="s">
         <v>852</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" s="44" t="s">
         <v>853</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46" t="s">
+      <c r="I20" s="44"/>
+      <c r="J20" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="K20" s="46" t="s">
+      <c r="K20" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="45" t="s">
         <v>854</v>
       </c>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="43"/>
+      <c r="AA20" s="43"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="44" t="s">
         <v>855</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="44" t="s">
         <v>857</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46" t="s">
+      <c r="I21" s="44"/>
+      <c r="J21" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="L21" s="47" t="s">
+      <c r="L21" s="45" t="s">
         <v>858</v>
       </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="43"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="44" t="s">
         <v>859</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="44" t="s">
         <v>860</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="44" t="s">
         <v>861</v>
       </c>
-      <c r="F22" s="46" t="s">
+      <c r="F22" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="45" t="s">
         <v>862</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46" t="s">
+      <c r="I22" s="44"/>
+      <c r="J22" s="44" t="s">
         <v>863</v>
       </c>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="L22" s="47" t="s">
+      <c r="L22" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="45"/>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="43"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="43"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="44" t="s">
         <v>864</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="H23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46" t="s">
+      <c r="I23" s="44"/>
+      <c r="J23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="K23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="43"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
+      <c r="AA23" s="43"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="44" t="s">
         <v>865</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="F24" s="46" t="s">
+      <c r="F24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46" t="s">
+      <c r="I24" s="44"/>
+      <c r="J24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="M24" s="45"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="45"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="45"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="47" t="s">
         <v>866</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="47" t="s">
         <v>833</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="47" t="s">
         <v>834</v>
       </c>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49" t="s">
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47" t="s">
         <v>867</v>
       </c>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50" t="s">
+      <c r="K25" s="47"/>
+      <c r="L25" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="45"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="43"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="44" t="s">
         <v>868</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="44" t="s">
         <v>869</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H26" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46" t="s">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="44" t="s">
         <v>295</v>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="45" t="s">
         <v>305</v>
       </c>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="45"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="44" t="s">
         <v>309</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="H27" s="46" t="s">
+      <c r="H27" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46" t="s">
+      <c r="I27" s="44"/>
+      <c r="J27" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="L27" s="47" t="s">
+      <c r="L27" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="45"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="45"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43"/>
+      <c r="AA27" s="43"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="44" t="s">
         <v>870</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="44" t="s">
         <v>871</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="44" t="s">
         <v>872</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46" t="s">
+      <c r="I28" s="44"/>
+      <c r="J28" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="K28" s="46" t="s">
+      <c r="K28" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="45"/>
-      <c r="Z28" s="45"/>
-      <c r="AA28" s="45"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="43"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="43"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46" t="s">
+      <c r="I29" s="44"/>
+      <c r="J29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="K29" s="46" t="s">
+      <c r="K29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="L29" s="46" t="s">
+      <c r="L29" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="M29" s="45"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="45"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="45"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="43"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="43"/>
+      <c r="AA29" s="43"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="44" t="s">
         <v>339</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="F30" s="46" t="s">
+      <c r="F30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="H30" s="46" t="s">
+      <c r="H30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46" t="s">
+      <c r="I30" s="44"/>
+      <c r="J30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="L30" s="46" t="s">
+      <c r="L30" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="45"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="45"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="43"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="43"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="H31" s="46" t="s">
+      <c r="H31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46" t="s">
+      <c r="I31" s="44"/>
+      <c r="J31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="K31" s="46" t="s">
+      <c r="K31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="L31" s="46" t="s">
+      <c r="L31" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="D32" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="F32" s="46" t="s">
+      <c r="F32" s="44" t="s">
         <v>873</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="H32" s="46" t="s">
+      <c r="H32" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46" t="s">
+      <c r="I32" s="44"/>
+      <c r="J32" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="K32" s="46" t="s">
+      <c r="K32" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="L32" s="46" t="s">
+      <c r="L32" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="43"/>
+      <c r="AA32" s="43"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="44" t="s">
         <v>874</v>
       </c>
-      <c r="F33" s="46" t="s">
+      <c r="F33" s="44" t="s">
         <v>875</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="H33" s="46" t="s">
+      <c r="H33" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46" t="s">
+      <c r="I33" s="44"/>
+      <c r="J33" s="44" t="s">
         <v>876</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="L33" s="46" t="s">
+      <c r="L33" s="44" t="s">
         <v>375</v>
       </c>
-      <c r="M33" s="45"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="H34" s="46" t="s">
+      <c r="H34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46" t="s">
+      <c r="I34" s="44"/>
+      <c r="J34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="K34" s="46" t="s">
+      <c r="K34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="L34" s="46" t="s">
+      <c r="L34" s="44" t="s">
         <v>387</v>
       </c>
-      <c r="M34" s="45"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43"/>
+      <c r="AA34" s="43"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="B35" s="46" t="s">
+      <c r="B35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="H35" s="46" t="s">
+      <c r="H35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46" t="s">
+      <c r="I35" s="44"/>
+      <c r="J35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="K35" s="46" t="s">
+      <c r="K35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="L35" s="46" t="s">
+      <c r="L35" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="M35" s="45"/>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="45"/>
-      <c r="Z35" s="45"/>
-      <c r="AA35" s="45"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="43"/>
+      <c r="X35" s="43"/>
+      <c r="Y35" s="43"/>
+      <c r="Z35" s="43"/>
+      <c r="AA35" s="43"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="44" t="s">
         <v>877</v>
       </c>
-      <c r="D36" s="46" t="s">
+      <c r="D36" s="44" t="s">
         <v>878</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="44" t="s">
         <v>879</v>
       </c>
-      <c r="F36" s="46" t="s">
+      <c r="F36" s="44" t="s">
         <v>880</v>
       </c>
-      <c r="G36" s="46" t="s">
+      <c r="G36" s="44" t="s">
         <v>879</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46" t="s">
+      <c r="I36" s="44"/>
+      <c r="J36" s="44" t="s">
         <v>879</v>
       </c>
-      <c r="K36" s="46" t="s">
+      <c r="K36" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="L36" s="46" t="s">
+      <c r="L36" s="44" t="s">
         <v>879</v>
       </c>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45"/>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
+      <c r="W36" s="43"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="43"/>
+      <c r="Z36" s="43"/>
+      <c r="AA36" s="43"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="C37" s="46" t="s">
+      <c r="C37" s="44" t="s">
         <v>881</v>
       </c>
-      <c r="D37" s="46" t="s">
+      <c r="D37" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="E37" s="46" t="s">
+      <c r="E37" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="44" t="s">
         <v>882</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="H37" s="46" t="s">
+      <c r="H37" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46" t="s">
+      <c r="I37" s="44"/>
+      <c r="J37" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="K37" s="46" t="s">
+      <c r="K37" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="L37" s="46" t="s">
+      <c r="L37" s="44" t="s">
         <v>421</v>
       </c>
-      <c r="M37" s="45"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C38" s="44" t="s">
         <v>883</v>
       </c>
-      <c r="D38" s="46" t="s">
+      <c r="D38" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="E38" s="46" t="s">
+      <c r="E38" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="44" t="s">
         <v>884</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G38" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="H38" s="46" t="s">
+      <c r="H38" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46" t="s">
+      <c r="I38" s="44"/>
+      <c r="J38" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="K38" s="46" t="s">
+      <c r="K38" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="L38" s="46" t="s">
+      <c r="L38" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="45"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="F39" s="46" t="s">
+      <c r="F39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="H39" s="46" t="s">
+      <c r="H39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46" t="s">
+      <c r="I39" s="44"/>
+      <c r="J39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="K39" s="46" t="s">
+      <c r="K39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="L39" s="46" t="s">
+      <c r="L39" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="M39" s="45"/>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="44" t="s">
         <v>885</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E40" s="44" t="s">
         <v>886</v>
       </c>
-      <c r="F40" s="46" t="s">
+      <c r="F40" s="44" t="s">
         <v>887</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="H40" s="46" t="s">
+      <c r="H40" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46" t="s">
+      <c r="I40" s="44"/>
+      <c r="J40" s="44" t="s">
         <v>888</v>
       </c>
-      <c r="K40" s="46" t="s">
+      <c r="K40" s="44" t="s">
         <v>457</v>
       </c>
-      <c r="L40" s="47" t="s">
+      <c r="L40" s="45" t="s">
         <v>889</v>
       </c>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="43"/>
+      <c r="X40" s="43"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="43"/>
+      <c r="AA40" s="43"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="44" t="s">
         <v>468</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="C41" s="46" t="s">
+      <c r="C41" s="44" t="s">
         <v>890</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="44" t="s">
         <v>891</v>
       </c>
-      <c r="E41" s="46" t="s">
+      <c r="E41" s="44" t="s">
         <v>892</v>
       </c>
-      <c r="F41" s="46" t="s">
+      <c r="F41" s="44" t="s">
         <v>470</v>
       </c>
-      <c r="G41" s="46" t="s">
+      <c r="G41" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="H41" s="46" t="s">
+      <c r="H41" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46" t="s">
+      <c r="I41" s="44"/>
+      <c r="J41" s="44" t="s">
         <v>893</v>
       </c>
-      <c r="K41" s="46" t="s">
+      <c r="K41" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="L41" s="47" t="s">
+      <c r="L41" s="45" t="s">
         <v>894</v>
       </c>
-      <c r="M41" s="45"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="45"/>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45"/>
-      <c r="U41" s="45"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="45"/>
-      <c r="X41" s="45"/>
-      <c r="Y41" s="45"/>
-      <c r="Z41" s="45"/>
-      <c r="AA41" s="45"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="44" t="s">
         <v>480</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="E42" s="46" t="s">
+      <c r="E42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="H42" s="46" t="s">
+      <c r="H42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46" t="s">
+      <c r="I42" s="44"/>
+      <c r="J42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="K42" s="46" t="s">
+      <c r="K42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="L42" s="46" t="s">
+      <c r="L42" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="M42" s="45"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="45"/>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="45"/>
-      <c r="X42" s="45"/>
-      <c r="Y42" s="45"/>
-      <c r="Z42" s="45"/>
-      <c r="AA42" s="45"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="43"/>
+      <c r="X42" s="43"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="43"/>
+      <c r="AA42" s="43"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="44" t="s">
         <v>895</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="44" t="s">
         <v>896</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="44" t="s">
         <v>897</v>
       </c>
-      <c r="F43" s="46" t="s">
+      <c r="F43" s="44" t="s">
         <v>898</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G43" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="H43" s="46" t="s">
+      <c r="H43" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46" t="s">
+      <c r="I43" s="44"/>
+      <c r="J43" s="44" t="s">
         <v>899</v>
       </c>
-      <c r="K43" s="46" t="s">
+      <c r="K43" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="L43" s="47" t="s">
+      <c r="L43" s="45" t="s">
         <v>900</v>
       </c>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="43"/>
+      <c r="X43" s="43"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="43"/>
+      <c r="AA43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="44" t="s">
         <v>901</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="44" t="s">
         <v>902</v>
       </c>
-      <c r="G44" s="46" t="s">
+      <c r="G44" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="H44" s="46" t="s">
+      <c r="H44" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46" t="s">
+      <c r="I44" s="44"/>
+      <c r="J44" s="44" t="s">
         <v>512</v>
       </c>
-      <c r="K44" s="46" t="s">
+      <c r="K44" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="L44" s="46" t="s">
+      <c r="L44" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="44" t="s">
         <v>903</v>
       </c>
-      <c r="D45" s="46" t="s">
+      <c r="D45" s="44" t="s">
         <v>904</v>
       </c>
-      <c r="E45" s="46" t="s">
+      <c r="E45" s="44" t="s">
         <v>905</v>
       </c>
-      <c r="F45" s="46" t="s">
+      <c r="F45" s="44" t="s">
         <v>906</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="H45" s="46" t="s">
+      <c r="H45" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46" t="s">
+      <c r="I45" s="44"/>
+      <c r="J45" s="44" t="s">
         <v>907</v>
       </c>
-      <c r="K45" s="46" t="s">
+      <c r="K45" s="44" t="s">
         <v>517</v>
       </c>
-      <c r="L45" s="47" t="s">
+      <c r="L45" s="45" t="s">
         <v>908</v>
       </c>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="45"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="45"/>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="45"/>
-      <c r="Z45" s="45"/>
-      <c r="AA45" s="45"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="44" t="s">
         <v>528</v>
       </c>
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="E46" s="46" t="s">
+      <c r="E46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="F46" s="46" t="s">
+      <c r="F46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="H46" s="46" t="s">
+      <c r="H46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46" t="s">
+      <c r="I46" s="44"/>
+      <c r="J46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="K46" s="46" t="s">
+      <c r="K46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="L46" s="46" t="s">
+      <c r="L46" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="45"/>
-      <c r="X46" s="45"/>
-      <c r="Y46" s="45"/>
-      <c r="Z46" s="45"/>
-      <c r="AA46" s="45"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="43"/>
+      <c r="X46" s="43"/>
+      <c r="Y46" s="43"/>
+      <c r="Z46" s="43"/>
+      <c r="AA46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="E47" s="46" t="s">
+      <c r="E47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="F47" s="46" t="s">
+      <c r="F47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="G47" s="46" t="s">
+      <c r="G47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="H47" s="46" t="s">
+      <c r="H47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46" t="s">
+      <c r="I47" s="44"/>
+      <c r="J47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="K47" s="46" t="s">
+      <c r="K47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="L47" s="46" t="s">
+      <c r="L47" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="45"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="45"/>
-      <c r="X47" s="45"/>
-      <c r="Y47" s="45"/>
-      <c r="Z47" s="45"/>
-      <c r="AA47" s="45"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="44" t="s">
         <v>909</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="44" t="s">
         <v>555</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E48" s="44" t="s">
         <v>910</v>
       </c>
-      <c r="F48" s="46" t="s">
+      <c r="F48" s="44" t="s">
         <v>911</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="H48" s="46" t="s">
+      <c r="H48" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46" t="s">
+      <c r="I48" s="44"/>
+      <c r="J48" s="44" t="s">
         <v>912</v>
       </c>
-      <c r="K48" s="46" t="s">
+      <c r="K48" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="L48" s="47" t="s">
+      <c r="L48" s="45" t="s">
         <v>913</v>
       </c>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="45"/>
-      <c r="U48" s="45"/>
-      <c r="V48" s="45"/>
-      <c r="W48" s="45"/>
-      <c r="X48" s="45"/>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="44" t="s">
         <v>564</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="C49" s="46" t="s">
+      <c r="C49" s="44" t="s">
         <v>914</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="44" t="s">
         <v>915</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="44" t="s">
         <v>916</v>
       </c>
-      <c r="F49" s="46" t="s">
+      <c r="F49" s="44" t="s">
         <v>917</v>
       </c>
-      <c r="G49" s="46" t="s">
+      <c r="G49" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="H49" s="46" t="s">
+      <c r="H49" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46" t="s">
+      <c r="I49" s="44"/>
+      <c r="J49" s="44" t="s">
         <v>918</v>
       </c>
-      <c r="K49" s="46" t="s">
+      <c r="K49" s="44" t="s">
         <v>565</v>
       </c>
-      <c r="L49" s="47" t="s">
+      <c r="L49" s="45" t="s">
         <v>919</v>
       </c>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="45"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="45"/>
-      <c r="X49" s="45"/>
-      <c r="Y49" s="45"/>
-      <c r="Z49" s="45"/>
-      <c r="AA49" s="45"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="43"/>
+      <c r="Y49" s="43"/>
+      <c r="Z49" s="43"/>
+      <c r="AA49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="C50" s="46" t="s">
+      <c r="C50" s="44" t="s">
         <v>920</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="44" t="s">
         <v>921</v>
       </c>
-      <c r="E50" s="46" t="s">
+      <c r="E50" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="F50" s="46" t="s">
+      <c r="F50" s="44" t="s">
         <v>922</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="H50" s="46" t="s">
+      <c r="H50" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46" t="s">
+      <c r="I50" s="44"/>
+      <c r="J50" s="44" t="s">
         <v>923</v>
       </c>
-      <c r="K50" s="46" t="s">
+      <c r="K50" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="L50" s="47" t="s">
+      <c r="L50" s="45" t="s">
         <v>924</v>
       </c>
-      <c r="M50" s="45"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="45"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="45"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
+      <c r="Y50" s="43"/>
+      <c r="Z50" s="43"/>
+      <c r="AA50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="44" t="s">
         <v>588</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C51" s="44" t="s">
         <v>925</v>
       </c>
-      <c r="D51" s="46" t="s">
+      <c r="D51" s="44" t="s">
         <v>591</v>
       </c>
-      <c r="E51" s="46" t="s">
+      <c r="E51" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="F51" s="46" t="s">
+      <c r="F51" s="44" t="s">
         <v>875</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G51" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="H51" s="46" t="s">
+      <c r="H51" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46" t="s">
+      <c r="I51" s="44"/>
+      <c r="J51" s="44" t="s">
         <v>926</v>
       </c>
-      <c r="K51" s="46" t="s">
+      <c r="K51" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="L51" s="47" t="s">
+      <c r="L51" s="45" t="s">
         <v>599</v>
       </c>
-      <c r="M51" s="45"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="45"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="45"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="45"/>
-      <c r="Y51" s="45"/>
-      <c r="Z51" s="45"/>
-      <c r="AA51" s="45"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+      <c r="AA51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="44" t="s">
         <v>927</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="44" t="s">
         <v>603</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="E52" s="44" t="s">
         <v>928</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="F52" s="44" t="s">
         <v>929</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="G52" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="H52" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46" t="s">
+      <c r="I52" s="44"/>
+      <c r="J52" s="44" t="s">
         <v>930</v>
       </c>
-      <c r="K52" s="46" t="s">
+      <c r="K52" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="L52" s="47" t="s">
+      <c r="L52" s="45" t="s">
         <v>931</v>
       </c>
-      <c r="M52" s="45"/>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="45"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="45"/>
-      <c r="Y52" s="45"/>
-      <c r="Z52" s="45"/>
-      <c r="AA52" s="45"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+      <c r="AA52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="44" t="s">
         <v>612</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C53" s="44" t="s">
         <v>932</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="44" t="s">
         <v>933</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E53" s="44" t="s">
         <v>934</v>
       </c>
-      <c r="F53" s="46" t="s">
+      <c r="F53" s="44" t="s">
         <v>602</v>
       </c>
-      <c r="G53" s="46" t="s">
+      <c r="G53" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46" t="s">
+      <c r="I53" s="44"/>
+      <c r="J53" s="44" t="s">
         <v>935</v>
       </c>
-      <c r="K53" s="46" t="s">
+      <c r="K53" s="44" t="s">
         <v>613</v>
       </c>
-      <c r="L53" s="47" t="s">
+      <c r="L53" s="45" t="s">
         <v>611</v>
       </c>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="45"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="45"/>
-      <c r="Y53" s="45"/>
-      <c r="Z53" s="45"/>
-      <c r="AA53" s="45"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="43"/>
+      <c r="Z53" s="43"/>
+      <c r="AA53" s="43"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="44" t="s">
         <v>624</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="C54" s="46" t="s">
+      <c r="C54" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="D54" s="46" t="s">
+      <c r="D54" s="44" t="s">
         <v>627</v>
       </c>
-      <c r="E54" s="46" t="s">
+      <c r="E54" s="44" t="s">
         <v>628</v>
       </c>
-      <c r="F54" s="46" t="s">
+      <c r="F54" s="44" t="s">
         <v>936</v>
       </c>
-      <c r="G54" s="46" t="s">
+      <c r="G54" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="H54" s="46" t="s">
+      <c r="H54" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46" t="s">
+      <c r="I54" s="44"/>
+      <c r="J54" s="44" t="s">
         <v>937</v>
       </c>
-      <c r="K54" s="46" t="s">
+      <c r="K54" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="L54" s="47" t="s">
+      <c r="L54" s="45" t="s">
         <v>635</v>
       </c>
-      <c r="M54" s="45"/>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="45"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="44" t="s">
         <v>636</v>
       </c>
-      <c r="B55" s="46" t="s">
+      <c r="B55" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C55" s="44" t="s">
         <v>938</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="D55" s="44" t="s">
         <v>939</v>
       </c>
-      <c r="E55" s="46" t="s">
+      <c r="E55" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="F55" s="46" t="s">
+      <c r="F55" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="G55" s="46" t="s">
+      <c r="G55" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="H55" s="46" t="s">
+      <c r="H55" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46" t="s">
+      <c r="I55" s="44"/>
+      <c r="J55" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="K55" s="46" t="s">
+      <c r="K55" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="L55" s="46" t="s">
+      <c r="L55" s="44" t="s">
         <v>637</v>
       </c>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="45"/>
-      <c r="W55" s="45"/>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="45"/>
-      <c r="AA55" s="45"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="43"/>
+      <c r="Z55" s="43"/>
+      <c r="AA55" s="43"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="44" t="s">
         <v>648</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="D56" s="46" t="s">
+      <c r="D56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="E56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="F56" s="46" t="s">
+      <c r="F56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="G56" s="46" t="s">
+      <c r="G56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="H56" s="46" t="s">
+      <c r="H56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46" t="s">
+      <c r="I56" s="44"/>
+      <c r="J56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="K56" s="46" t="s">
+      <c r="K56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="L56" s="46" t="s">
+      <c r="L56" s="44" t="s">
         <v>652</v>
       </c>
-      <c r="M56" s="45"/>
-      <c r="N56" s="45"/>
-      <c r="O56" s="45"/>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="45"/>
-      <c r="W56" s="45"/>
-      <c r="X56" s="45"/>
-      <c r="Y56" s="45"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="43"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="44" t="s">
         <v>660</v>
       </c>
-      <c r="B57" s="46" t="s">
+      <c r="B57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="D57" s="46" t="s">
+      <c r="D57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="E57" s="46" t="s">
+      <c r="E57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="F57" s="46" t="s">
+      <c r="F57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="G57" s="46" t="s">
+      <c r="G57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="I57" s="46"/>
-      <c r="J57" s="46" t="s">
+      <c r="I57" s="44"/>
+      <c r="J57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="K57" s="46" t="s">
+      <c r="K57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="L57" s="46" t="s">
+      <c r="L57" s="44" t="s">
         <v>661</v>
       </c>
-      <c r="M57" s="45"/>
-      <c r="N57" s="45"/>
-      <c r="O57" s="45"/>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="45"/>
-      <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="45"/>
-      <c r="U57" s="45"/>
-      <c r="V57" s="45"/>
-      <c r="W57" s="45"/>
-      <c r="X57" s="45"/>
-      <c r="Y57" s="45"/>
-      <c r="Z57" s="45"/>
-      <c r="AA57" s="45"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+      <c r="AA57" s="43"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="44" t="s">
         <v>672</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="44" t="s">
         <v>673</v>
       </c>
-      <c r="C58" s="46" t="s">
+      <c r="C58" s="44" t="s">
         <v>940</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D58" s="44" t="s">
         <v>675</v>
       </c>
-      <c r="E58" s="46" t="s">
+      <c r="E58" s="44" t="s">
         <v>676</v>
       </c>
-      <c r="F58" s="46" t="s">
+      <c r="F58" s="44" t="s">
         <v>941</v>
       </c>
-      <c r="G58" s="46" t="s">
+      <c r="G58" s="44" t="s">
         <v>673</v>
       </c>
-      <c r="H58" s="46" t="s">
+      <c r="H58" s="44" t="s">
         <v>673</v>
       </c>
-      <c r="I58" s="46"/>
-      <c r="J58" s="46" t="s">
+      <c r="I58" s="44"/>
+      <c r="J58" s="44" t="s">
         <v>680</v>
       </c>
-      <c r="K58" s="46" t="s">
+      <c r="K58" s="44" t="s">
         <v>673</v>
       </c>
-      <c r="L58" s="47" t="s">
+      <c r="L58" s="45" t="s">
         <v>683</v>
       </c>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45"/>
-      <c r="W58" s="45"/>
-      <c r="X58" s="45"/>
-      <c r="Y58" s="45"/>
-      <c r="Z58" s="45"/>
-      <c r="AA58" s="45"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="43"/>
+      <c r="X58" s="43"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="43"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="44" t="s">
         <v>684</v>
       </c>
-      <c r="B59" s="46" t="s">
+      <c r="B59" s="44" t="s">
         <v>685</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="44" t="s">
         <v>942</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="44" t="s">
         <v>943</v>
       </c>
-      <c r="E59" s="46" t="s">
+      <c r="E59" s="44" t="s">
         <v>944</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="44" t="s">
         <v>945</v>
       </c>
-      <c r="G59" s="46" t="s">
+      <c r="G59" s="44" t="s">
         <v>685</v>
       </c>
-      <c r="H59" s="46" t="s">
+      <c r="H59" s="44" t="s">
         <v>685</v>
       </c>
-      <c r="I59" s="46"/>
-      <c r="J59" s="46" t="s">
+      <c r="I59" s="44"/>
+      <c r="J59" s="44" t="s">
         <v>946</v>
       </c>
-      <c r="K59" s="46" t="s">
+      <c r="K59" s="44" t="s">
         <v>685</v>
       </c>
-      <c r="L59" s="47" t="s">
+      <c r="L59" s="45" t="s">
         <v>947</v>
       </c>
-      <c r="M59" s="45"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="45"/>
-      <c r="U59" s="45"/>
-      <c r="V59" s="45"/>
-      <c r="W59" s="45"/>
-      <c r="X59" s="45"/>
-      <c r="Y59" s="45"/>
-      <c r="Z59" s="45"/>
-      <c r="AA59" s="45"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="43"/>
+      <c r="X59" s="43"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="43"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="44" t="s">
         <v>696</v>
       </c>
-      <c r="B60" s="46" t="s">
+      <c r="B60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="D60" s="46" t="s">
+      <c r="D60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="E60" s="46" t="s">
+      <c r="E60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="G60" s="46" t="s">
+      <c r="G60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="H60" s="46" t="s">
+      <c r="H60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="I60" s="46"/>
-      <c r="J60" s="46" t="s">
+      <c r="I60" s="44"/>
+      <c r="J60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="K60" s="46" t="s">
+      <c r="K60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="L60" s="46" t="s">
+      <c r="L60" s="44" t="s">
         <v>697</v>
       </c>
-      <c r="M60" s="45"/>
-      <c r="N60" s="45"/>
-      <c r="O60" s="45"/>
-      <c r="P60" s="45"/>
-      <c r="Q60" s="45"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="45"/>
-      <c r="U60" s="45"/>
-      <c r="V60" s="45"/>
-      <c r="W60" s="45"/>
-      <c r="X60" s="45"/>
-      <c r="Y60" s="45"/>
-      <c r="Z60" s="45"/>
-      <c r="AA60" s="45"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="43"/>
+      <c r="X60" s="43"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="43"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="44" t="s">
         <v>708</v>
       </c>
-      <c r="B61" s="46" t="s">
+      <c r="B61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="C61" s="46" t="s">
+      <c r="C61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="E61" s="46" t="s">
+      <c r="E61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="F61" s="46" t="s">
+      <c r="F61" s="44" t="s">
         <v>948</v>
       </c>
-      <c r="G61" s="46" t="s">
+      <c r="G61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="H61" s="46" t="s">
+      <c r="H61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46" t="s">
+      <c r="I61" s="44"/>
+      <c r="J61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="K61" s="46" t="s">
+      <c r="K61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="L61" s="46" t="s">
+      <c r="L61" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="45"/>
-      <c r="Q61" s="45"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="45"/>
-      <c r="X61" s="45"/>
-      <c r="Y61" s="45"/>
-      <c r="Z61" s="45"/>
-      <c r="AA61" s="45"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="43"/>
+      <c r="X61" s="43"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="43"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="44" t="s">
         <v>720</v>
       </c>
-      <c r="B62" s="46" t="s">
+      <c r="B62" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="C62" s="44" t="s">
         <v>949</v>
       </c>
-      <c r="D62" s="46" t="s">
+      <c r="D62" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="44" t="s">
         <v>951</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="44" t="s">
         <v>952</v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="G62" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="I62" s="46"/>
-      <c r="J62" s="46" t="s">
+      <c r="I62" s="44"/>
+      <c r="J62" s="44" t="s">
         <v>953</v>
       </c>
-      <c r="K62" s="46" t="s">
+      <c r="K62" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="L62" s="47" t="s">
+      <c r="L62" s="45" t="s">
         <v>954</v>
       </c>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="45"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="45"/>
-      <c r="U62" s="45"/>
-      <c r="V62" s="45"/>
-      <c r="W62" s="45"/>
-      <c r="X62" s="45"/>
-      <c r="Y62" s="45"/>
-      <c r="Z62" s="45"/>
-      <c r="AA62" s="45"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="43"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="43"/>
+      <c r="X62" s="43"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="43"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="50" t="s">
         <v>732</v>
       </c>
-      <c r="B63" s="46" t="s">
+      <c r="B63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="F63" s="46" t="s">
+      <c r="F63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="G63" s="46" t="s">
+      <c r="G63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="H63" s="46" t="s">
+      <c r="H63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46" t="s">
+      <c r="I63" s="44"/>
+      <c r="J63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="K63" s="46" t="s">
+      <c r="K63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="L63" s="46" t="s">
+      <c r="L63" s="44" t="s">
         <v>733</v>
       </c>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="45"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="45"/>
-      <c r="U63" s="45"/>
-      <c r="V63" s="45"/>
-      <c r="W63" s="45"/>
-      <c r="X63" s="45"/>
-      <c r="Y63" s="45"/>
-      <c r="Z63" s="45"/>
-      <c r="AA63" s="45"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="43"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="43"/>
+      <c r="X63" s="43"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="43"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="53" t="s">
+      <c r="A64" s="51" t="s">
         <v>744</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="51" t="s">
         <v>745</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="45"/>
-      <c r="AA64" s="45"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="43"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="41" t="s">
@@ -12412,24 +12404,24 @@
         <v>959</v>
       </c>
       <c r="K65" s="41"/>
-      <c r="L65" s="47" t="s">
+      <c r="L65" s="45" t="s">
         <v>960</v>
       </c>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="45"/>
-      <c r="AA65" s="45"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="43"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="41" t="s">
@@ -12460,21 +12452,21 @@
       <c r="L66" s="41" t="s">
         <v>963</v>
       </c>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="55"/>
-      <c r="V66" s="55"/>
-      <c r="W66" s="55"/>
-      <c r="X66" s="55"/>
-      <c r="Y66" s="55"/>
-      <c r="Z66" s="45"/>
-      <c r="AA66" s="45"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="53"/>
+      <c r="Y66" s="53"/>
+      <c r="Z66" s="43"/>
+      <c r="AA66" s="43"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="41" t="s">
@@ -12502,24 +12494,24 @@
         <v>968</v>
       </c>
       <c r="K67" s="41"/>
-      <c r="L67" s="47" t="s">
+      <c r="L67" s="45" t="s">
         <v>969</v>
       </c>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="55"/>
-      <c r="U67" s="55"/>
-      <c r="V67" s="55"/>
-      <c r="W67" s="55"/>
-      <c r="X67" s="55"/>
-      <c r="Y67" s="55"/>
-      <c r="Z67" s="45"/>
-      <c r="AA67" s="45"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="53"/>
+      <c r="R67" s="53"/>
+      <c r="S67" s="53"/>
+      <c r="T67" s="53"/>
+      <c r="U67" s="53"/>
+      <c r="V67" s="53"/>
+      <c r="W67" s="53"/>
+      <c r="X67" s="53"/>
+      <c r="Y67" s="53"/>
+      <c r="Z67" s="43"/>
+      <c r="AA67" s="43"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="41" t="s">
@@ -12547,57 +12539,57 @@
         <v>974</v>
       </c>
       <c r="K68" s="41"/>
-      <c r="L68" s="47" t="s">
+      <c r="L68" s="45" t="s">
         <v>975</v>
       </c>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-      <c r="W68" s="55"/>
-      <c r="X68" s="55"/>
-      <c r="Y68" s="55"/>
-      <c r="Z68" s="45"/>
-      <c r="AA68" s="45"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="53"/>
+      <c r="U68" s="53"/>
+      <c r="V68" s="53"/>
+      <c r="W68" s="53"/>
+      <c r="X68" s="53"/>
+      <c r="Y68" s="53"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="43"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="44" t="s">
         <v>976</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="44" t="s">
         <v>977</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
-      <c r="Q69" s="45"/>
-      <c r="R69" s="45"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="45"/>
-      <c r="U69" s="45"/>
-      <c r="V69" s="45"/>
-      <c r="W69" s="45"/>
-      <c r="X69" s="45"/>
-      <c r="Y69" s="45"/>
-      <c r="Z69" s="45"/>
-      <c r="AA69" s="45"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="43"/>
+      <c r="X69" s="43"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
